--- a/biology/Zoologie/Ganthela/Ganthela.xlsx
+++ b/biology/Zoologie/Ganthela/Ganthela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganthela est un genre d'araignées mésothèles de la famille des Heptathelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganthela est un genre d'araignées mésothèles de la famille des Heptathelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Chine[1]. Elles se rencontrent au Fujian et au Jiangxi[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Chine. Elles se rencontrent au Fujian et au Jiangxi,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 07/06/2022) :
 Ganthela cipingensis (Wang, 1989)
 Ganthela jianensis Xu, Kuntner &amp; Chen, 2015
 Ganthela qingyuanensis Xu, Kuntner &amp; Liu, 2015
@@ -579,9 +595,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Xu et Kuntner en 2015 dans les Liphistiidae. Il est placé dans les Heptathelidae par Li en 2022[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Xu et Kuntner en 2015 dans les Liphistiidae. Il est placé dans les Heptathelidae par Li en 2022.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Xu, Liu, Chen, Ono, Li &amp; Kuntner, 2015 : « A genus-level taxonomic review of primitively segmented spiders (Mesothelae, Liphistiidae). » ZooKeys, no 488, p. 121-151 (texte intégral).</t>
         </is>
